--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3626E34-1C2B-4FA9-BF44-91CAF4DADEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C568A7-A90A-4647-89D6-BFFD3931334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C568A7-A90A-4647-89D6-BFFD3931334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4ABE1-AD3B-4799-94C8-309062FEF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4ABE1-AD3B-4799-94C8-309062FEF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169A6C9-AB12-4BAA-A6C8-90F82B9311C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169A6C9-AB12-4BAA-A6C8-90F82B9311C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF087D9C-CAA8-46C6-BA3C-7BC972EC8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF087D9C-CAA8-46C6-BA3C-7BC972EC8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB82ACA-62C2-4538-BA6A-F71C91A825F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB82ACA-62C2-4538-BA6A-F71C91A825F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B7481-706E-4E3D-B88E-681503A3A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DD670-9D6F-463E-9453-221282D00105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590E111-FCE6-476F-BA9D-56D2D36BDA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590E111-FCE6-476F-BA9D-56D2D36BDA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C798151-6B9F-4E69-BE7E-869060FF2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C798151-6B9F-4E69-BE7E-869060FF2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948245DC-EAA0-4257-8FD8-187B699423D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948245DC-EAA0-4257-8FD8-187B699423D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C376CD-4B2B-498E-8AA2-EE08CC3B3D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C376CD-4B2B-498E-8AA2-EE08CC3B3D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4067A70-DF7C-4E64-93C5-BBE0A8096596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="70">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -188,43 +188,16 @@
     <t>START</t>
   </si>
   <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
     <t>cset_cn</t>
   </si>
   <si>
     <t>other_indexes</t>
   </si>
   <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>VDA_EMCB</t>
   </si>
   <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -234,9 +207,6 @@
   </si>
   <si>
     <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
   </si>
   <si>
     <t>~UC_T: FX</t>
@@ -258,9 +228,6 @@
   </si>
   <si>
     <t>ep*,EN*</t>
-  </si>
-  <si>
-    <t>Geothermal*</t>
   </si>
   <si>
     <t>COM_AGG</t>
@@ -328,6 +295,18 @@
   <si>
     <t>UC_RHSRT~2050</t>
   </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>prc_capact</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,14 +448,12 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -814,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -860,20 +843,20 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>65</v>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
@@ -881,18 +864,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.56406124093472998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.0273972602739727</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.56540424388933652</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1.0386379305176703</v>
       </c>
       <c r="V3" t="s">
@@ -901,7 +884,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -915,16 +898,16 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.23782343987823443</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.89421613394216137</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.18793244401906242</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.88329964817725881</v>
       </c>
     </row>
@@ -933,30 +916,30 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.36680237426422968</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.2347492523474925</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.36358931570220004</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.23313357542404456</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.36680237426422968</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
@@ -965,23 +948,23 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.10488047400581937</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.69864384932878076</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.98981820244476593</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.69787800697878011</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.98999546215150747</v>
       </c>
       <c r="U6" t="s">
@@ -998,23 +981,23 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.22222222222222224</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.25799086757990863</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.33057458143074581</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.25661171163179708</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.33115736045443078</v>
       </c>
       <c r="U7" t="s">
@@ -1073,23 +1056,23 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>IFERROR(VLOOKUP(B8,$F$3:$J$11,3,FALSE),"")</f>
         <v>0.98981820244476593</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>5.7077625570776259E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>7.6409137310276112E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.10488047400581937</v>
       </c>
       <c r="U8" t="s">
@@ -1101,15 +1084,15 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z8" s="3" t="e">
+      <c r="Z8" s="2" t="e">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA8" s="3" t="e">
+      <c r="AA8" s="2" t="e">
         <f>Z8*$AB$1</f>
         <v>#N/A</v>
       </c>
@@ -1129,7 +1112,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI8" s="3" t="e">
+      <c r="AI8" s="2" t="e">
         <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1148,16 +1131,16 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.11415525114155252</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.22831050228310504</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>7.6103500761035003E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.22222222222222224</v>
       </c>
       <c r="U9" t="s">
@@ -1169,15 +1152,15 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.89421613394216137</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
         <f>Z9*$AB$1</f>
         <v>0.98363774733637754</v>
       </c>
@@ -1197,7 +1180,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="2">
         <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>0.23782343987823443</v>
       </c>
@@ -1216,24 +1199,24 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.12065189145042136</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.20950575930337231</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.11224565216756209</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.19080736612574969</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
@@ -1281,7 +1264,7 @@
         <v>17</v>
       </c>
       <c r="AD14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
@@ -1293,13 +1276,13 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
+        <v>Hydropower - large-scale unit,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
         <v>19</v>
@@ -1320,42 +1303,34 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="L16" t="s">
-        <v>31</v>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L17" t="s">
-        <v>32</v>
+      <c r="L17" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L19" t="s">
-        <v>34</v>
+      <c r="L18" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1363,19 +1338,19 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="L21" t="s">
-        <v>38</v>
+      <c r="G21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <f>I22*3.6</f>
@@ -1384,19 +1359,16 @@
       <c r="I22">
         <v>94</v>
       </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <f>I23*3.6</f>
@@ -1405,19 +1377,16 @@
       <c r="I23">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <f>I24*3.6</f>
@@ -1426,50 +1395,41 @@
       <c r="I24">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1478,18 +1438,32 @@
         <f>C27</f>
         <v>co2captured</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L28" t="s">
-        <v>54</v>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>8.76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
@@ -1497,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1511,10 +1485,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1533,10 +1507,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1574,27 +1548,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10">
         <v>2000</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>0.21</v>
@@ -1608,7 +1582,7 @@
         <v>2000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13">
         <v>0.86</v>
@@ -1622,7 +1596,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11">
         <v>36.83</v>
@@ -1636,7 +1610,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D6" s="13">
         <v>26.45</v>
@@ -1650,7 +1624,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>1.1299999999999999</v>
@@ -1658,13 +1632,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12">
         <v>2000</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13">
         <v>0.63</v>
@@ -1678,7 +1652,7 @@
         <v>2000</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="11">
         <v>0.01</v>
@@ -1692,7 +1666,7 @@
         <v>2000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -1700,13 +1674,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B11" s="10">
         <v>2001</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11">
         <v>0.2</v>
@@ -1720,7 +1694,7 @@
         <v>2001</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="13">
         <v>0.85</v>
@@ -1734,7 +1708,7 @@
         <v>2001</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11">
         <v>41.31</v>
@@ -1748,7 +1722,7 @@
         <v>2001</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D14" s="13">
         <v>26.81</v>
@@ -1762,7 +1736,7 @@
         <v>2001</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11">
         <v>1.19</v>
@@ -1770,13 +1744,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12">
         <v>2001</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D16" s="13">
         <v>0.68</v>
@@ -1790,7 +1764,7 @@
         <v>2001</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D17" s="11">
         <v>0.01</v>
@@ -1804,7 +1778,7 @@
         <v>2001</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -1812,13 +1786,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B19" s="10">
         <v>2002</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D19" s="11">
         <v>0.21</v>
@@ -1832,7 +1806,7 @@
         <v>2002</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13">
         <v>0.89</v>
@@ -1846,7 +1820,7 @@
         <v>2002</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11">
         <v>35.17</v>
@@ -1860,7 +1834,7 @@
         <v>2002</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13">
         <v>27.23</v>
@@ -1874,7 +1848,7 @@
         <v>2002</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11">
         <v>1.19</v>
@@ -1882,13 +1856,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B24" s="12">
         <v>2002</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" s="13">
         <v>0.71</v>
@@ -1902,7 +1876,7 @@
         <v>2002</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D25" s="11">
         <v>0.01</v>
@@ -1916,7 +1890,7 @@
         <v>2002</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13">
         <v>0</v>
@@ -1924,13 +1898,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10">
         <v>2003</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D27" s="11">
         <v>0.22</v>
@@ -1944,7 +1918,7 @@
         <v>2003</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13">
         <v>0.93</v>
@@ -1958,7 +1932,7 @@
         <v>2003</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" s="11">
         <v>34.76</v>
@@ -1972,7 +1946,7 @@
         <v>2003</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13">
         <v>27.49</v>
@@ -1986,7 +1960,7 @@
         <v>2003</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11">
         <v>1.2</v>
@@ -1994,13 +1968,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B32" s="12">
         <v>2003</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D32" s="13">
         <v>0.72</v>
@@ -2014,7 +1988,7 @@
         <v>2003</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11">
         <v>0.02</v>
@@ -2028,7 +2002,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -2036,13 +2010,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B35" s="10">
         <v>2004</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>0.22</v>
@@ -2056,7 +2030,7 @@
         <v>2004</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D36" s="13">
         <v>0.94</v>
@@ -2070,7 +2044,7 @@
         <v>2004</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11">
         <v>33.75</v>
@@ -2084,7 +2058,7 @@
         <v>2004</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D38" s="13">
         <v>26.96</v>
@@ -2098,7 +2072,7 @@
         <v>2004</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D39" s="11">
         <v>1.21</v>
@@ -2106,13 +2080,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B40" s="12">
         <v>2004</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D40" s="13">
         <v>0.76</v>
@@ -2126,7 +2100,7 @@
         <v>2004</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" s="11">
         <v>0.02</v>
@@ -2140,7 +2114,7 @@
         <v>2004</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D42" s="13">
         <v>0.01</v>
@@ -2148,13 +2122,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B43" s="10">
         <v>2005</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D43" s="11">
         <v>0.22</v>
@@ -2168,7 +2142,7 @@
         <v>2005</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13">
         <v>0.87</v>
@@ -2182,7 +2156,7 @@
         <v>2005</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D45" s="11">
         <v>31.23</v>
@@ -2196,7 +2170,7 @@
         <v>2005</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D46" s="13">
         <v>23.34</v>
@@ -2210,7 +2184,7 @@
         <v>2005</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D47" s="11">
         <v>1.3</v>
@@ -2218,13 +2192,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B48" s="12">
         <v>2005</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D48" s="13">
         <v>0.81</v>
@@ -2238,7 +2212,7 @@
         <v>2005</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D49" s="11">
         <v>0.02</v>
@@ -2252,7 +2226,7 @@
         <v>2005</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D50" s="13">
         <v>0.01</v>
@@ -2260,13 +2234,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B51" s="10">
         <v>2006</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D51" s="11">
         <v>0.23</v>
@@ -2280,7 +2254,7 @@
         <v>2006</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D52" s="13">
         <v>0.79</v>
@@ -2294,7 +2268,7 @@
         <v>2006</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D53" s="11">
         <v>30.96</v>
@@ -2308,7 +2282,7 @@
         <v>2006</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D54" s="13">
         <v>27.82</v>
@@ -2322,7 +2296,7 @@
         <v>2006</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D55" s="11">
         <v>1.39</v>
@@ -2330,13 +2304,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B56" s="12">
         <v>2006</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D56" s="13">
         <v>0.91</v>
@@ -2350,7 +2324,7 @@
         <v>2006</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D57" s="11">
         <v>0.02</v>
@@ -2364,7 +2338,7 @@
         <v>2006</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D58" s="13">
         <v>0.01</v>
@@ -2372,13 +2346,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B59" s="10">
         <v>2007</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D59" s="11">
         <v>0.28999999999999998</v>
@@ -2392,7 +2366,7 @@
         <v>2007</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D60" s="13">
         <v>0.74</v>
@@ -2406,7 +2380,7 @@
         <v>2007</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D61" s="11">
         <v>35.25</v>
@@ -2420,7 +2394,7 @@
         <v>2007</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D62" s="13">
         <v>27.92</v>
@@ -2434,7 +2408,7 @@
         <v>2007</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D63" s="11">
         <v>1.29</v>
@@ -2442,13 +2416,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B64" s="12">
         <v>2007</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D64" s="13">
         <v>0.89</v>
@@ -2462,7 +2436,7 @@
         <v>2007</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D65" s="11">
         <v>0.03</v>
@@ -2476,7 +2450,7 @@
         <v>2007</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D66" s="13">
         <v>0.02</v>
@@ -2484,13 +2458,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10">
         <v>2008</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D67" s="11">
         <v>0.32</v>
@@ -2504,7 +2478,7 @@
         <v>2008</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D68" s="13">
         <v>0.73</v>
@@ -2518,7 +2492,7 @@
         <v>2008</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D69" s="11">
         <v>36.04</v>
@@ -2532,7 +2506,7 @@
         <v>2008</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D70" s="13">
         <v>27.7</v>
@@ -2546,7 +2520,7 @@
         <v>2008</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D71" s="11">
         <v>1.28</v>
@@ -2554,13 +2528,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B72" s="12">
         <v>2008</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D72" s="13">
         <v>0.91</v>
@@ -2574,7 +2548,7 @@
         <v>2008</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D73" s="11">
         <v>0.04</v>
@@ -2588,7 +2562,7 @@
         <v>2008</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D74" s="13">
         <v>0.02</v>
@@ -2596,13 +2570,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B75" s="10">
         <v>2009</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D75" s="11">
         <v>0.36</v>
@@ -2616,7 +2590,7 @@
         <v>2009</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D76" s="13">
         <v>0.71</v>
@@ -2630,7 +2604,7 @@
         <v>2009</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D77" s="11">
         <v>35.72</v>
@@ -2644,7 +2618,7 @@
         <v>2009</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D78" s="13">
         <v>27.69</v>
@@ -2658,7 +2632,7 @@
         <v>2009</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D79" s="11">
         <v>1.24</v>
@@ -2666,13 +2640,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B80" s="12">
         <v>2009</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D80" s="13">
         <v>0.88</v>
@@ -2686,7 +2660,7 @@
         <v>2009</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D81" s="11">
         <v>0.05</v>
@@ -2700,7 +2674,7 @@
         <v>2009</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D82" s="13">
         <v>0.02</v>
@@ -2708,13 +2682,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B83" s="10">
         <v>2010</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D83" s="11">
         <v>0.36</v>
@@ -2728,7 +2702,7 @@
         <v>2010</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D84" s="13">
         <v>1.03</v>
@@ -2742,7 +2716,7 @@
         <v>2010</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D85" s="11">
         <v>36.06</v>
@@ -2756,7 +2730,7 @@
         <v>2010</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D86" s="13">
         <v>26.34</v>
@@ -2770,7 +2744,7 @@
         <v>2010</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D87" s="11">
         <v>1.21</v>
@@ -2778,13 +2752,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B88" s="12">
         <v>2010</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D88" s="13">
         <v>0.92</v>
@@ -2798,7 +2772,7 @@
         <v>2010</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D89" s="11">
         <v>0.09</v>
@@ -2812,7 +2786,7 @@
         <v>2010</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" s="13">
         <v>0.04</v>
@@ -2820,13 +2794,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B91" s="10">
         <v>2011</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D91" s="11">
         <v>0.44</v>
@@ -2840,7 +2814,7 @@
         <v>2011</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D92" s="13">
         <v>0.96</v>
@@ -2854,7 +2828,7 @@
         <v>2011</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D93" s="11">
         <v>32.39</v>
@@ -2868,7 +2842,7 @@
         <v>2011</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D94" s="13">
         <v>26.71</v>
@@ -2882,7 +2856,7 @@
         <v>2011</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D95" s="11">
         <v>1.19</v>
@@ -2890,13 +2864,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B96" s="12">
         <v>2011</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D96" s="13">
         <v>0.95</v>
@@ -2910,7 +2884,7 @@
         <v>2011</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D97" s="11">
         <v>0.17</v>
@@ -2924,7 +2898,7 @@
         <v>2011</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D98" s="13">
         <v>7.0000000000000007E-2</v>
@@ -2932,13 +2906,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B99" s="10">
         <v>2012</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D99" s="11">
         <v>0.53</v>
@@ -2952,7 +2926,7 @@
         <v>2012</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D100" s="13">
         <v>0.91</v>
@@ -2966,7 +2940,7 @@
         <v>2012</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D101" s="11">
         <v>38.6</v>
@@ -2980,7 +2954,7 @@
         <v>2012</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D102" s="13">
         <v>25.44</v>
@@ -2994,7 +2968,7 @@
         <v>2012</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D103" s="11">
         <v>1.25</v>
@@ -3002,13 +2976,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B104" s="12">
         <v>2012</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D104" s="13">
         <v>1.01</v>
@@ -3022,7 +2996,7 @@
         <v>2012</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D105" s="11">
         <v>0.3</v>
@@ -3036,7 +3010,7 @@
         <v>2012</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D106" s="13">
         <v>0.09</v>
@@ -3044,13 +3018,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B107" s="10">
         <v>2013</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D107" s="11">
         <v>0.57999999999999996</v>
@@ -3064,7 +3038,7 @@
         <v>2013</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D108" s="13">
         <v>0.75</v>
@@ -3078,7 +3052,7 @@
         <v>2013</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D109" s="11">
         <v>38.46</v>
@@ -3092,7 +3066,7 @@
         <v>2013</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D110" s="13">
         <v>25.99</v>
@@ -3106,7 +3080,7 @@
         <v>2013</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D111" s="11">
         <v>1.28</v>
@@ -3114,13 +3088,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B112" s="12">
         <v>2013</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D112" s="13">
         <v>1.04</v>
@@ -3134,7 +3108,7 @@
         <v>2013</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D113" s="11">
         <v>0.5</v>
@@ -3148,7 +3122,7 @@
         <v>2013</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D114" s="13">
         <v>0.09</v>
@@ -3156,13 +3130,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B115" s="10">
         <v>2014</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D115" s="11">
         <v>0.59</v>
@@ -3176,7 +3150,7 @@
         <v>2014</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D116" s="13">
         <v>0.5</v>
@@ -3190,7 +3164,7 @@
         <v>2014</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D117" s="11">
         <v>38.04</v>
@@ -3204,7 +3178,7 @@
         <v>2014</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D118" s="13">
         <v>27.56</v>
@@ -3218,7 +3192,7 @@
         <v>2014</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D119" s="11">
         <v>1.35</v>
@@ -3226,13 +3200,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B120" s="12">
         <v>2014</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D120" s="13">
         <v>1.1000000000000001</v>
@@ -3246,7 +3220,7 @@
         <v>2014</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D121" s="11">
         <v>0.84</v>
@@ -3260,7 +3234,7 @@
         <v>2014</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D122" s="13">
         <v>0.1</v>
@@ -3268,13 +3242,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B123" s="10">
         <v>2015</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D123" s="11">
         <v>0.52</v>
@@ -3288,7 +3262,7 @@
         <v>2015</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D124" s="13">
         <v>0.63</v>
@@ -3302,7 +3276,7 @@
         <v>2015</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D125" s="11">
         <v>38.26</v>
@@ -3316,7 +3290,7 @@
         <v>2015</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D126" s="13">
         <v>23.09</v>
@@ -3330,7 +3304,7 @@
         <v>2015</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D127" s="11">
         <v>1.23</v>
@@ -3338,13 +3312,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B128" s="12">
         <v>2015</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D128" s="13">
         <v>1.1100000000000001</v>
@@ -3358,7 +3332,7 @@
         <v>2015</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D129" s="11">
         <v>1.1200000000000001</v>
@@ -3372,7 +3346,7 @@
         <v>2015</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D130" s="13">
         <v>0.11</v>
@@ -3380,13 +3354,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B131" s="10">
         <v>2016</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D131" s="11">
         <v>0.57999999999999996</v>
@@ -3400,7 +3374,7 @@
         <v>2016</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D132" s="13">
         <v>0.86</v>
@@ -3414,7 +3388,7 @@
         <v>2016</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D133" s="11">
         <v>34.619999999999997</v>
@@ -3428,7 +3402,7 @@
         <v>2016</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D134" s="13">
         <v>21.15</v>
@@ -3442,7 +3416,7 @@
         <v>2016</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D135" s="11">
         <v>1.28</v>
@@ -3450,13 +3424,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B136" s="12">
         <v>2016</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D136" s="13">
         <v>1.17</v>
@@ -3470,7 +3444,7 @@
         <v>2016</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D137" s="11">
         <v>1.33</v>
@@ -3484,7 +3458,7 @@
         <v>2016</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D138" s="13">
         <v>0.11</v>
@@ -3492,13 +3466,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B139" s="10">
         <v>2017</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D139" s="11">
         <v>0.69</v>
@@ -3512,7 +3486,7 @@
         <v>2017</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D140" s="13">
         <v>0.72</v>
@@ -3526,7 +3500,7 @@
         <v>2017</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D141" s="11">
         <v>34.090000000000003</v>
@@ -3540,7 +3514,7 @@
         <v>2017</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D142" s="13">
         <v>20.38</v>
@@ -3554,7 +3528,7 @@
         <v>2017</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D143" s="11">
         <v>1.29</v>
@@ -3562,13 +3536,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B144" s="12">
         <v>2017</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D144" s="13">
         <v>1.17</v>
@@ -3582,7 +3556,7 @@
         <v>2017</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D145" s="11">
         <v>1.68</v>
@@ -3596,7 +3570,7 @@
         <v>2017</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D146" s="13">
         <v>0.13</v>
@@ -3604,13 +3578,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B147" s="10">
         <v>2018</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D147" s="11">
         <v>0.66</v>
@@ -3624,7 +3598,7 @@
         <v>2018</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D148" s="13">
         <v>0.62</v>
@@ -3638,7 +3612,7 @@
         <v>2018</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D149" s="11">
         <v>34.99</v>
@@ -3652,7 +3626,7 @@
         <v>2018</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D150" s="13">
         <v>25.51</v>
@@ -3666,7 +3640,7 @@
         <v>2018</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D151" s="11">
         <v>1.28</v>
@@ -3674,13 +3648,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B152" s="12">
         <v>2018</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D152" s="13">
         <v>1.1599999999999999</v>
@@ -3694,7 +3668,7 @@
         <v>2018</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D153" s="11">
         <v>1.95</v>
@@ -3708,7 +3682,7 @@
         <v>2018</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D154" s="13">
         <v>0.12</v>
@@ -3716,13 +3690,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B155" s="10">
         <v>2019</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D155" s="11">
         <v>0.71</v>
@@ -3736,7 +3710,7 @@
         <v>2019</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D156" s="13">
         <v>0.61</v>
@@ -3750,7 +3724,7 @@
         <v>2019</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D157" s="11">
         <v>38.04</v>
@@ -3764,7 +3738,7 @@
         <v>2019</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D158" s="13">
         <v>26.42</v>
@@ -3778,7 +3752,7 @@
         <v>2019</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D159" s="11">
         <v>1.29</v>
@@ -3786,13 +3760,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B160" s="12">
         <v>2019</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D160" s="13">
         <v>1.17</v>
@@ -3806,7 +3780,7 @@
         <v>2019</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D161" s="11">
         <v>2.1800000000000002</v>
@@ -3820,7 +3794,7 @@
         <v>2019</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D162" s="13">
         <v>0.15</v>
@@ -3828,13 +3802,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B163" s="10">
         <v>2020</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D163" s="11">
         <v>0.81</v>
@@ -3848,7 +3822,7 @@
         <v>2020</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D164" s="13">
         <v>0.62</v>
@@ -3862,7 +3836,7 @@
         <v>2020</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D165" s="11">
         <v>37.869999999999997</v>
@@ -3876,7 +3850,7 @@
         <v>2020</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D166" s="13">
         <v>24.02</v>
@@ -3890,7 +3864,7 @@
         <v>2020</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D167" s="11">
         <v>1.25</v>
@@ -3898,13 +3872,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B168" s="12">
         <v>2020</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D168" s="13">
         <v>1.18</v>
@@ -3918,7 +3892,7 @@
         <v>2020</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D169" s="11">
         <v>2.6</v>
@@ -3932,7 +3906,7 @@
         <v>2020</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D170" s="13">
         <v>0.14000000000000001</v>
@@ -3940,13 +3914,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B171" s="10">
         <v>2021</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D171" s="11">
         <v>0.96</v>
@@ -3960,7 +3934,7 @@
         <v>2021</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D172" s="13">
         <v>0.5</v>
@@ -3974,7 +3948,7 @@
         <v>2021</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D173" s="11">
         <v>36.96</v>
@@ -3988,7 +3962,7 @@
         <v>2021</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D174" s="13">
         <v>19.36</v>
@@ -4002,7 +3976,7 @@
         <v>2021</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D175" s="11">
         <v>1.22</v>
@@ -4010,13 +3984,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B176" s="12">
         <v>2021</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D176" s="13">
         <v>1.1100000000000001</v>
@@ -4030,7 +4004,7 @@
         <v>2021</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D177" s="11">
         <v>2.84</v>
@@ -4044,7 +4018,7 @@
         <v>2021</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D178" s="13">
         <v>0.15</v>
@@ -4052,13 +4026,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B179" s="10">
         <v>2022</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D179" s="11">
         <v>0.96</v>
@@ -4072,7 +4046,7 @@
         <v>2022</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D180" s="13">
         <v>0.5</v>
@@ -4086,7 +4060,7 @@
         <v>2022</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D181" s="11">
         <v>30.99</v>
@@ -4100,7 +4074,7 @@
         <v>2022</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D182" s="13">
         <v>23.95</v>
@@ -4114,7 +4088,7 @@
         <v>2022</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D183" s="11">
         <v>1.22</v>
@@ -4122,13 +4096,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B184" s="12">
         <v>2022</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D184" s="13">
         <v>1.1100000000000001</v>
@@ -4142,7 +4116,7 @@
         <v>2022</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D185" s="11">
         <v>3.37</v>
@@ -4156,7 +4130,7 @@
         <v>2022</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D186" s="13">
         <v>0.17</v>
@@ -4164,13 +4138,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B187" s="10">
         <v>2023</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D187" s="11">
         <v>0.96</v>
@@ -4184,7 +4158,7 @@
         <v>2023</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D188" s="13">
         <v>0.5</v>
@@ -4198,7 +4172,7 @@
         <v>2023</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D189" s="11">
         <v>38.68</v>
@@ -4212,7 +4186,7 @@
         <v>2023</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D190" s="13">
         <v>24.19</v>
@@ -4226,7 +4200,7 @@
         <v>2023</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D191" s="11">
         <v>1.22</v>
@@ -4234,13 +4208,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B192" s="12">
         <v>2023</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D192" s="13">
         <v>1.1100000000000001</v>
@@ -4254,7 +4228,7 @@
         <v>2023</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D193" s="11">
         <v>4.07</v>
@@ -4268,7 +4242,7 @@
         <v>2023</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D194" s="13">
         <v>0.17</v>
@@ -4276,13 +4250,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B195" s="10">
         <v>2000</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D195" s="11">
         <v>0.03</v>
@@ -4296,7 +4270,7 @@
         <v>2000</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D196" s="13">
         <v>0.13</v>
@@ -4310,7 +4284,7 @@
         <v>2000</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D197" s="11">
         <v>12.92</v>
@@ -4324,7 +4298,7 @@
         <v>2000</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D198" s="13">
         <v>3.2</v>
@@ -4338,7 +4312,7 @@
         <v>2000</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D199" s="11">
         <v>0.5</v>
@@ -4346,13 +4320,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B200" s="12">
         <v>2000</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D200" s="13">
         <v>0.14000000000000001</v>
@@ -4366,7 +4340,7 @@
         <v>2000</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D201" s="11">
         <v>0.02</v>
@@ -4380,7 +4354,7 @@
         <v>2000</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D202" s="13">
         <v>0</v>
@@ -4388,13 +4362,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B203" s="10">
         <v>2001</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D203" s="11">
         <v>0.03</v>
@@ -4408,7 +4382,7 @@
         <v>2001</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D204" s="13">
         <v>0.13</v>
@@ -4422,7 +4396,7 @@
         <v>2001</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D205" s="11">
         <v>12.97</v>
@@ -4436,7 +4410,7 @@
         <v>2001</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D206" s="13">
         <v>3.2</v>
@@ -4450,7 +4424,7 @@
         <v>2001</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D207" s="11">
         <v>0.51</v>
@@ -4458,13 +4432,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B208" s="12">
         <v>2001</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D208" s="13">
         <v>0.14000000000000001</v>
@@ -4478,7 +4452,7 @@
         <v>2001</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D209" s="11">
         <v>0.02</v>
@@ -4492,7 +4466,7 @@
         <v>2001</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D210" s="13">
         <v>0</v>
@@ -4500,13 +4474,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B211" s="10">
         <v>2002</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D211" s="11">
         <v>0.03</v>
@@ -4520,7 +4494,7 @@
         <v>2002</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D212" s="13">
         <v>0.14000000000000001</v>
@@ -4534,7 +4508,7 @@
         <v>2002</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D213" s="11">
         <v>12.98</v>
@@ -4548,7 +4522,7 @@
         <v>2002</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D214" s="13">
         <v>3.22</v>
@@ -4562,7 +4536,7 @@
         <v>2002</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D215" s="11">
         <v>0.51</v>
@@ -4570,13 +4544,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B216" s="12">
         <v>2002</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D216" s="13">
         <v>0.14000000000000001</v>
@@ -4590,7 +4564,7 @@
         <v>2002</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D217" s="11">
         <v>0.02</v>
@@ -4604,7 +4578,7 @@
         <v>2002</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D218" s="13">
         <v>0</v>
@@ -4612,13 +4586,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B219" s="10">
         <v>2003</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D219" s="11">
         <v>0.03</v>
@@ -4632,7 +4606,7 @@
         <v>2003</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D220" s="13">
         <v>0.19</v>
@@ -4646,7 +4620,7 @@
         <v>2003</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D221" s="11">
         <v>13</v>
@@ -4660,7 +4634,7 @@
         <v>2003</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D222" s="13">
         <v>3.22</v>
@@ -4674,7 +4648,7 @@
         <v>2003</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D223" s="11">
         <v>0.48</v>
@@ -4682,13 +4656,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B224" s="12">
         <v>2003</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D224" s="13">
         <v>0.15</v>
@@ -4702,7 +4676,7 @@
         <v>2003</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D225" s="11">
         <v>0.02</v>
@@ -4716,7 +4690,7 @@
         <v>2003</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D226" s="13">
         <v>0</v>
@@ -4724,13 +4698,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B227" s="10">
         <v>2004</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D227" s="11">
         <v>0.03</v>
@@ -4744,7 +4718,7 @@
         <v>2004</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D228" s="13">
         <v>0.12</v>
@@ -4758,7 +4732,7 @@
         <v>2004</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D229" s="11">
         <v>13</v>
@@ -4772,7 +4746,7 @@
         <v>2004</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D230" s="13">
         <v>3.22</v>
@@ -4786,7 +4760,7 @@
         <v>2004</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D231" s="11">
         <v>0.52</v>
@@ -4794,13 +4768,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B232" s="12">
         <v>2004</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D232" s="13">
         <v>0.15</v>
@@ -4814,7 +4788,7 @@
         <v>2004</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D233" s="11">
         <v>0.02</v>
@@ -4828,7 +4802,7 @@
         <v>2004</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D234" s="13">
         <v>0.01</v>
@@ -4836,13 +4810,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B235" s="10">
         <v>2005</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D235" s="11">
         <v>0.03</v>
@@ -4856,7 +4830,7 @@
         <v>2005</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D236" s="13">
         <v>0.14000000000000001</v>
@@ -4870,7 +4844,7 @@
         <v>2005</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D237" s="11">
         <v>13.04</v>
@@ -4884,7 +4858,7 @@
         <v>2005</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D238" s="13">
         <v>3.22</v>
@@ -4898,7 +4872,7 @@
         <v>2005</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D239" s="11">
         <v>0.5</v>
@@ -4906,13 +4880,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B240" s="12">
         <v>2005</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D240" s="13">
         <v>0.15</v>
@@ -4926,7 +4900,7 @@
         <v>2005</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D241" s="11">
         <v>0.03</v>
@@ -4940,7 +4914,7 @@
         <v>2005</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D242" s="13">
         <v>0.01</v>
@@ -4948,13 +4922,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B243" s="10">
         <v>2006</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D243" s="11">
         <v>0.03</v>
@@ -4968,7 +4942,7 @@
         <v>2006</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D244" s="13">
         <v>0.16</v>
@@ -4982,7 +4956,7 @@
         <v>2006</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D245" s="11">
         <v>13.04</v>
@@ -4996,7 +4970,7 @@
         <v>2006</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D246" s="13">
         <v>3.22</v>
@@ -5010,7 +4984,7 @@
         <v>2006</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D247" s="11">
         <v>0.48</v>
@@ -5018,13 +4992,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B248" s="12">
         <v>2006</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D248" s="13">
         <v>0.17</v>
@@ -5038,7 +5012,7 @@
         <v>2006</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D249" s="11">
         <v>0.03</v>
@@ -5052,7 +5026,7 @@
         <v>2006</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D250" s="13">
         <v>0.01</v>
@@ -5060,13 +5034,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B251" s="10">
         <v>2007</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D251" s="11">
         <v>0.03</v>
@@ -5080,7 +5054,7 @@
         <v>2007</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D252" s="13">
         <v>0.16</v>
@@ -5094,7 +5068,7 @@
         <v>2007</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D253" s="11">
         <v>13.15</v>
@@ -5108,7 +5082,7 @@
         <v>2007</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D254" s="13">
         <v>3.22</v>
@@ -5122,7 +5096,7 @@
         <v>2007</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D255" s="11">
         <v>0.48</v>
@@ -5130,13 +5104,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B256" s="12">
         <v>2007</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D256" s="13">
         <v>0.17</v>
@@ -5150,7 +5124,7 @@
         <v>2007</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D257" s="11">
         <v>0.04</v>
@@ -5164,7 +5138,7 @@
         <v>2007</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D258" s="13">
         <v>0.01</v>
@@ -5172,13 +5146,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B259" s="10">
         <v>2008</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D259" s="11">
         <v>0.03</v>
@@ -5192,7 +5166,7 @@
         <v>2008</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D260" s="13">
         <v>0.19</v>
@@ -5206,7 +5180,7 @@
         <v>2008</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D261" s="11">
         <v>13.16</v>
@@ -5220,7 +5194,7 @@
         <v>2008</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D262" s="13">
         <v>3.22</v>
@@ -5234,7 +5208,7 @@
         <v>2008</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D263" s="11">
         <v>0.46</v>
@@ -5242,13 +5216,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B264" s="12">
         <v>2008</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D264" s="13">
         <v>0.17</v>
@@ -5262,7 +5236,7 @@
         <v>2008</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D265" s="11">
         <v>0.05</v>
@@ -5276,7 +5250,7 @@
         <v>2008</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D266" s="13">
         <v>0.01</v>
@@ -5284,13 +5258,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B267" s="10">
         <v>2009</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D267" s="11">
         <v>0.03</v>
@@ -5304,7 +5278,7 @@
         <v>2009</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D268" s="13">
         <v>0.2</v>
@@ -5318,7 +5292,7 @@
         <v>2009</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D269" s="11">
         <v>13.21</v>
@@ -5332,7 +5306,7 @@
         <v>2009</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D270" s="13">
         <v>3.24</v>
@@ -5346,7 +5320,7 @@
         <v>2009</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D271" s="11">
         <v>0.52</v>
@@ -5354,13 +5328,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B272" s="12">
         <v>2009</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D272" s="13">
         <v>0.17</v>
@@ -5374,7 +5348,7 @@
         <v>2009</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D273" s="11">
         <v>0.08</v>
@@ -5388,7 +5362,7 @@
         <v>2009</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D274" s="13">
         <v>0.02</v>
@@ -5396,13 +5370,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B275" s="10">
         <v>2010</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D275" s="11">
         <v>0.03</v>
@@ -5416,7 +5390,7 @@
         <v>2010</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D276" s="13">
         <v>0.28000000000000003</v>
@@ -5430,7 +5404,7 @@
         <v>2010</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D277" s="11">
         <v>13.27</v>
@@ -5444,7 +5418,7 @@
         <v>2010</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D278" s="13">
         <v>3.25</v>
@@ -5458,7 +5432,7 @@
         <v>2010</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D279" s="11">
         <v>0.45</v>
@@ -5466,13 +5440,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B280" s="12">
         <v>2010</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D280" s="13">
         <v>0.18</v>
@@ -5486,7 +5460,7 @@
         <v>2010</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D281" s="11">
         <v>0.13</v>
@@ -5500,7 +5474,7 @@
         <v>2010</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D282" s="13">
         <v>0.04</v>
@@ -5508,13 +5482,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B283" s="10">
         <v>2011</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D283" s="11">
         <v>0.03</v>
@@ -5528,7 +5502,7 @@
         <v>2011</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D284" s="13">
         <v>0.23</v>
@@ -5542,7 +5516,7 @@
         <v>2011</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D285" s="11">
         <v>13.31</v>
@@ -5556,7 +5530,7 @@
         <v>2011</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D286" s="13">
         <v>3.28</v>
@@ -5570,7 +5544,7 @@
         <v>2011</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D287" s="11">
         <v>0.49</v>
@@ -5578,13 +5552,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B288" s="12">
         <v>2011</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D288" s="13">
         <v>0.17</v>
@@ -5598,7 +5572,7 @@
         <v>2011</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D289" s="11">
         <v>0.22</v>
@@ -5612,7 +5586,7 @@
         <v>2011</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D290" s="13">
         <v>0.05</v>
@@ -5620,13 +5594,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B291" s="10">
         <v>2012</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D291" s="11">
         <v>0.03</v>
@@ -5640,7 +5614,7 @@
         <v>2012</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D292" s="13">
         <v>0.26</v>
@@ -5654,7 +5628,7 @@
         <v>2012</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D293" s="11">
         <v>13.35</v>
@@ -5668,7 +5642,7 @@
         <v>2012</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D294" s="13">
         <v>3.28</v>
@@ -5682,7 +5656,7 @@
         <v>2012</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D295" s="11">
         <v>0.52</v>
@@ -5690,13 +5664,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B296" s="12">
         <v>2012</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D296" s="13">
         <v>0.2</v>
@@ -5710,7 +5684,7 @@
         <v>2012</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D297" s="11">
         <v>0.44</v>
@@ -5724,7 +5698,7 @@
         <v>2012</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D298" s="13">
         <v>0.05</v>
@@ -5732,13 +5706,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B299" s="10">
         <v>2013</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D299" s="11">
         <v>0.03</v>
@@ -5752,7 +5726,7 @@
         <v>2013</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D300" s="13">
         <v>0.27</v>
@@ -5766,7 +5740,7 @@
         <v>2013</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D301" s="11">
         <v>13.36</v>
@@ -5780,7 +5754,7 @@
         <v>2013</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D302" s="13">
         <v>3.28</v>
@@ -5794,7 +5768,7 @@
         <v>2013</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D303" s="11">
         <v>0.52</v>
@@ -5802,13 +5776,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B304" s="12">
         <v>2013</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D304" s="13">
         <v>0.2</v>
@@ -5822,7 +5796,7 @@
         <v>2013</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D305" s="11">
         <v>0.76</v>
@@ -5836,7 +5810,7 @@
         <v>2013</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D306" s="13">
         <v>0.06</v>
@@ -5844,13 +5818,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B307" s="10">
         <v>2014</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D307" s="11">
         <v>0.03</v>
@@ -5864,7 +5838,7 @@
         <v>2014</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D308" s="13">
         <v>0.24</v>
@@ -5878,7 +5852,7 @@
         <v>2014</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D309" s="11">
         <v>13.29</v>
@@ -5892,7 +5866,7 @@
         <v>2014</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D310" s="13">
         <v>3.31</v>
@@ -5906,7 +5880,7 @@
         <v>2014</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D311" s="11">
         <v>0.53</v>
@@ -5914,13 +5888,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B312" s="12">
         <v>2014</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D312" s="13">
         <v>0.2</v>
@@ -5934,7 +5908,7 @@
         <v>2014</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D313" s="11">
         <v>1.06</v>
@@ -5948,7 +5922,7 @@
         <v>2014</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D314" s="13">
         <v>0.06</v>
@@ -5956,13 +5930,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B315" s="10">
         <v>2015</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D315" s="11">
         <v>0.03</v>
@@ -5976,7 +5950,7 @@
         <v>2015</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D316" s="13">
         <v>0.24</v>
@@ -5990,7 +5964,7 @@
         <v>2015</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D317" s="11">
         <v>13.35</v>
@@ -6004,7 +5978,7 @@
         <v>2015</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D318" s="13">
         <v>3.33</v>
@@ -6018,7 +5992,7 @@
         <v>2015</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D319" s="11">
         <v>0.54</v>
@@ -6026,13 +6000,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B320" s="12">
         <v>2015</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D320" s="13">
         <v>0.21</v>
@@ -6046,7 +6020,7 @@
         <v>2015</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D321" s="11">
         <v>1.39</v>
@@ -6060,7 +6034,7 @@
         <v>2015</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D322" s="13">
         <v>0.06</v>
@@ -6068,13 +6042,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B323" s="10">
         <v>2016</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D323" s="11">
         <v>0.03</v>
@@ -6088,7 +6062,7 @@
         <v>2016</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D324" s="13">
         <v>0.23</v>
@@ -6102,7 +6076,7 @@
         <v>2016</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D325" s="11">
         <v>14.28</v>
@@ -6116,7 +6090,7 @@
         <v>2016</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D326" s="13">
         <v>3.33</v>
@@ -6130,7 +6104,7 @@
         <v>2016</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D327" s="11">
         <v>0.49</v>
@@ -6138,13 +6112,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B328" s="12">
         <v>2016</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D328" s="13">
         <v>0.21</v>
@@ -6158,7 +6132,7 @@
         <v>2016</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D329" s="11">
         <v>1.66</v>
@@ -6172,7 +6146,7 @@
         <v>2016</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D330" s="13">
         <v>0.08</v>
@@ -6180,13 +6154,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B331" s="10">
         <v>2017</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D331" s="11">
         <v>0.03</v>
@@ -6200,7 +6174,7 @@
         <v>2017</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D332" s="13">
         <v>0.23</v>
@@ -6214,7 +6188,7 @@
         <v>2017</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D333" s="11">
         <v>14.83</v>
@@ -6228,7 +6202,7 @@
         <v>2017</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D334" s="13">
         <v>3.33</v>
@@ -6242,7 +6216,7 @@
         <v>2017</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D335" s="11">
         <v>0.48</v>
@@ -6250,13 +6224,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B336" s="12">
         <v>2017</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D336" s="13">
         <v>0.21</v>
@@ -6270,7 +6244,7 @@
         <v>2017</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D337" s="11">
         <v>1.91</v>
@@ -6284,7 +6258,7 @@
         <v>2017</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D338" s="13">
         <v>0.08</v>
@@ -6292,13 +6266,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B339" s="10">
         <v>2018</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D339" s="11">
         <v>0.03</v>
@@ -6312,7 +6286,7 @@
         <v>2018</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D340" s="13">
         <v>0.22</v>
@@ -6326,7 +6300,7 @@
         <v>2018</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D341" s="11">
         <v>14.98</v>
@@ -6340,7 +6314,7 @@
         <v>2018</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D342" s="13">
         <v>3.33</v>
@@ -6354,7 +6328,7 @@
         <v>2018</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D343" s="11">
         <v>0.47</v>
@@ -6362,13 +6336,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B344" s="12">
         <v>2018</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D344" s="13">
         <v>0.21</v>
@@ -6382,7 +6356,7 @@
         <v>2018</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D345" s="11">
         <v>2.17</v>
@@ -6396,7 +6370,7 @@
         <v>2018</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D346" s="13">
         <v>0.08</v>
@@ -6404,13 +6378,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B347" s="10">
         <v>2019</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D347" s="11">
         <v>0.03</v>
@@ -6424,7 +6398,7 @@
         <v>2019</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D348" s="13">
         <v>0.22</v>
@@ -6438,7 +6412,7 @@
         <v>2019</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D349" s="11">
         <v>15.01</v>
@@ -6452,7 +6426,7 @@
         <v>2019</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D350" s="13">
         <v>3.33</v>
@@ -6466,7 +6440,7 @@
         <v>2019</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D351" s="11">
         <v>0.48</v>
@@ -6474,13 +6448,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B352" s="12">
         <v>2019</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D352" s="13">
         <v>0.21</v>
@@ -6494,7 +6468,7 @@
         <v>2019</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D353" s="11">
         <v>2.5</v>
@@ -6508,7 +6482,7 @@
         <v>2019</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D354" s="13">
         <v>0.08</v>
@@ -6516,13 +6490,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B355" s="10">
         <v>2020</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D355" s="11">
         <v>0.03</v>
@@ -6536,7 +6510,7 @@
         <v>2020</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D356" s="13">
         <v>0.22</v>
@@ -6550,7 +6524,7 @@
         <v>2020</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D357" s="11">
         <v>15.03</v>
@@ -6564,7 +6538,7 @@
         <v>2020</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D358" s="13">
         <v>3.33</v>
@@ -6578,7 +6552,7 @@
         <v>2020</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D359" s="11">
         <v>0.49</v>
@@ -6586,13 +6560,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B360" s="12">
         <v>2020</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D360" s="13">
         <v>0.21</v>
@@ -6606,7 +6580,7 @@
         <v>2020</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D361" s="11">
         <v>2.97</v>
@@ -6620,7 +6594,7 @@
         <v>2020</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D362" s="13">
         <v>0.09</v>
@@ -6628,13 +6602,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B363" s="10">
         <v>2021</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D363" s="11">
         <v>0.03</v>
@@ -6648,7 +6622,7 @@
         <v>2021</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D364" s="13">
         <v>0.23</v>
@@ -6662,7 +6636,7 @@
         <v>2021</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D365" s="11">
         <v>15.05</v>
@@ -6676,7 +6650,7 @@
         <v>2021</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D366" s="13">
         <v>2.96</v>
@@ -6690,7 +6664,7 @@
         <v>2021</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D367" s="11">
         <v>0.5</v>
@@ -6698,13 +6672,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B368" s="12">
         <v>2021</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D368" s="13">
         <v>0.2</v>
@@ -6718,7 +6692,7 @@
         <v>2021</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D369" s="11">
         <v>3.65</v>
@@ -6732,7 +6706,7 @@
         <v>2021</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D370" s="13">
         <v>0.09</v>
@@ -6740,13 +6714,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B371" s="10">
         <v>2022</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D371" s="11">
         <v>0.03</v>
@@ -6760,7 +6734,7 @@
         <v>2022</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D372" s="13">
         <v>0.23</v>
@@ -6774,7 +6748,7 @@
         <v>2022</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D373" s="11">
         <v>15.07</v>
@@ -6788,7 +6762,7 @@
         <v>2022</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D374" s="13">
         <v>2.96</v>
@@ -6802,7 +6776,7 @@
         <v>2022</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D375" s="11">
         <v>0.5</v>
@@ -6810,13 +6784,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B376" s="12">
         <v>2022</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D376" s="13">
         <v>0.2</v>
@@ -6830,7 +6804,7 @@
         <v>2022</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D377" s="11">
         <v>4.34</v>
@@ -6844,7 +6818,7 @@
         <v>2022</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D378" s="13">
         <v>0.09</v>
@@ -6852,13 +6826,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B379" s="10">
         <v>2023</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D379" s="11">
         <v>0.03</v>
@@ -6872,7 +6846,7 @@
         <v>2023</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D380" s="13">
         <v>0.23</v>
@@ -6886,7 +6860,7 @@
         <v>2023</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D381" s="11">
         <v>15.28</v>
@@ -6900,7 +6874,7 @@
         <v>2023</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D382" s="13">
         <v>2.96</v>
@@ -6914,7 +6888,7 @@
         <v>2023</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D383" s="11">
         <v>0.5</v>
@@ -6922,13 +6896,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B384" s="12">
         <v>2023</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D384" s="13">
         <v>0.2</v>
@@ -6942,7 +6916,7 @@
         <v>2023</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D385" s="11">
         <v>5.84</v>
@@ -6956,7 +6930,7 @@
         <v>2023</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D386" s="13">
         <v>0.09</v>
@@ -6964,13 +6938,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B387" s="10">
         <v>2000</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D387" s="11">
         <v>0.05</v>
@@ -6984,7 +6958,7 @@
         <v>2000</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D388" s="13">
         <v>0.32</v>
@@ -6998,7 +6972,7 @@
         <v>2000</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D389" s="11">
         <v>0.88</v>
@@ -7012,7 +6986,7 @@
         <v>2000</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D390" s="13">
         <v>0.12</v>
@@ -7026,7 +7000,7 @@
         <v>2000</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D391" s="11">
         <v>0.74</v>
@@ -7034,13 +7008,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B392" s="12">
         <v>2000</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D392" s="13">
         <v>0.02</v>
@@ -7054,7 +7028,7 @@
         <v>2000</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D393" s="11">
         <v>0</v>
@@ -7068,7 +7042,7 @@
         <v>2000</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D394" s="13">
         <v>0</v>
@@ -7076,13 +7050,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B395" s="10">
         <v>2001</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D395" s="11">
         <v>0.04</v>
@@ -7096,7 +7070,7 @@
         <v>2001</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D396" s="13">
         <v>0.32</v>
@@ -7110,7 +7084,7 @@
         <v>2001</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D397" s="11">
         <v>0.98</v>
@@ -7124,7 +7098,7 @@
         <v>2001</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D398" s="13">
         <v>0.12</v>
@@ -7138,7 +7112,7 @@
         <v>2001</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D399" s="11">
         <v>0.78</v>
@@ -7146,13 +7120,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B400" s="12">
         <v>2001</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D400" s="13">
         <v>0.03</v>
@@ -7166,7 +7140,7 @@
         <v>2001</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D401" s="11">
         <v>0</v>
@@ -7180,7 +7154,7 @@
         <v>2001</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D402" s="13">
         <v>0</v>
@@ -7188,13 +7162,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B403" s="10">
         <v>2002</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D403" s="11">
         <v>0.05</v>
@@ -7208,7 +7182,7 @@
         <v>2002</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D404" s="13">
         <v>0.34</v>
@@ -7222,7 +7196,7 @@
         <v>2002</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D405" s="11">
         <v>0.84</v>
@@ -7236,7 +7210,7 @@
         <v>2002</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D406" s="13">
         <v>0.13</v>
@@ -7250,7 +7224,7 @@
         <v>2002</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D407" s="11">
         <v>0.78</v>
@@ -7258,13 +7232,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B408" s="12">
         <v>2002</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D408" s="13">
         <v>0.03</v>
@@ -7278,7 +7252,7 @@
         <v>2002</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D409" s="11">
         <v>0</v>
@@ -7292,7 +7266,7 @@
         <v>2002</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D410" s="13">
         <v>0</v>
@@ -7300,13 +7274,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B411" s="10">
         <v>2003</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D411" s="11">
         <v>0.05</v>
@@ -7320,7 +7294,7 @@
         <v>2003</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D412" s="13">
         <v>0.35</v>
@@ -7334,7 +7308,7 @@
         <v>2003</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D413" s="11">
         <v>0.83</v>
@@ -7348,7 +7322,7 @@
         <v>2003</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D414" s="13">
         <v>0.13</v>
@@ -7362,7 +7336,7 @@
         <v>2003</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D415" s="11">
         <v>0.79</v>
@@ -7370,13 +7344,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B416" s="12">
         <v>2003</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D416" s="13">
         <v>0.03</v>
@@ -7390,7 +7364,7 @@
         <v>2003</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D417" s="11">
         <v>0</v>
@@ -7404,7 +7378,7 @@
         <v>2003</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D418" s="13">
         <v>0</v>
@@ -7412,13 +7386,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B419" s="10">
         <v>2004</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D419" s="11">
         <v>0.05</v>
@@ -7432,7 +7406,7 @@
         <v>2004</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D420" s="13">
         <v>0.36</v>
@@ -7446,7 +7420,7 @@
         <v>2004</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D421" s="11">
         <v>0.8</v>
@@ -7460,7 +7434,7 @@
         <v>2004</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D422" s="13">
         <v>0.12</v>
@@ -7474,7 +7448,7 @@
         <v>2004</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D423" s="11">
         <v>0.8</v>
@@ -7482,13 +7456,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B424" s="12">
         <v>2004</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D424" s="13">
         <v>0.03</v>
@@ -7502,7 +7476,7 @@
         <v>2004</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D425" s="11">
         <v>0</v>
@@ -7516,7 +7490,7 @@
         <v>2004</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D426" s="13">
         <v>0</v>
@@ -7524,13 +7498,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B427" s="10">
         <v>2005</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D427" s="11">
         <v>0.05</v>
@@ -7544,7 +7518,7 @@
         <v>2005</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D428" s="13">
         <v>0.33</v>
@@ -7558,7 +7532,7 @@
         <v>2005</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D429" s="11">
         <v>0.74</v>
@@ -7572,7 +7546,7 @@
         <v>2005</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D430" s="13">
         <v>0.11</v>
@@ -7586,7 +7560,7 @@
         <v>2005</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D431" s="11">
         <v>0.86</v>
@@ -7594,13 +7568,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B432" s="12">
         <v>2005</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D432" s="13">
         <v>0.03</v>
@@ -7614,7 +7588,7 @@
         <v>2005</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D433" s="11">
         <v>0</v>
@@ -7628,7 +7602,7 @@
         <v>2005</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D434" s="13">
         <v>0</v>
@@ -7636,13 +7610,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B435" s="10">
         <v>2006</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D435" s="11">
         <v>0.05</v>
@@ -7656,7 +7630,7 @@
         <v>2006</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D436" s="13">
         <v>0.3</v>
@@ -7670,7 +7644,7 @@
         <v>2006</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D437" s="11">
         <v>0.74</v>
@@ -7684,7 +7658,7 @@
         <v>2006</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D438" s="13">
         <v>0.13</v>
@@ -7698,7 +7672,7 @@
         <v>2006</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D439" s="11">
         <v>0.91</v>
@@ -7706,13 +7680,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B440" s="12">
         <v>2006</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D440" s="13">
         <v>0.03</v>
@@ -7726,7 +7700,7 @@
         <v>2006</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D441" s="11">
         <v>0</v>
@@ -7740,7 +7714,7 @@
         <v>2006</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D442" s="13">
         <v>0</v>
@@ -7748,13 +7722,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B443" s="10">
         <v>2007</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D443" s="11">
         <v>0.06</v>
@@ -7768,7 +7742,7 @@
         <v>2007</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D444" s="13">
         <v>0.28000000000000003</v>
@@ -7782,7 +7756,7 @@
         <v>2007</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D445" s="11">
         <v>0.84</v>
@@ -7796,7 +7770,7 @@
         <v>2007</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D446" s="13">
         <v>0.13</v>
@@ -7810,7 +7784,7 @@
         <v>2007</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D447" s="11">
         <v>0.85</v>
@@ -7818,13 +7792,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B448" s="12">
         <v>2007</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D448" s="13">
         <v>0.03</v>
@@ -7838,7 +7812,7 @@
         <v>2007</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D449" s="11">
         <v>0</v>
@@ -7852,7 +7826,7 @@
         <v>2007</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D450" s="13">
         <v>0</v>
@@ -7860,13 +7834,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B451" s="10">
         <v>2008</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D451" s="11">
         <v>7.0000000000000007E-2</v>
@@ -7880,7 +7854,7 @@
         <v>2008</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D452" s="13">
         <v>0.28000000000000003</v>
@@ -7894,7 +7868,7 @@
         <v>2008</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D453" s="11">
         <v>0.86</v>
@@ -7908,7 +7882,7 @@
         <v>2008</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D454" s="13">
         <v>0.13</v>
@@ -7922,7 +7896,7 @@
         <v>2008</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D455" s="11">
         <v>0.84</v>
@@ -7930,13 +7904,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B456" s="12">
         <v>2008</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D456" s="13">
         <v>0.03</v>
@@ -7950,7 +7924,7 @@
         <v>2008</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D457" s="11">
         <v>0</v>
@@ -7964,7 +7938,7 @@
         <v>2008</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D458" s="13">
         <v>0</v>
@@ -7972,13 +7946,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B459" s="10">
         <v>2009</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D459" s="11">
         <v>0.08</v>
@@ -7992,7 +7966,7 @@
         <v>2009</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D460" s="13">
         <v>0.27</v>
@@ -8006,7 +7980,7 @@
         <v>2009</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D461" s="11">
         <v>0.85</v>
@@ -8020,7 +7994,7 @@
         <v>2009</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D462" s="13">
         <v>0.13</v>
@@ -8034,7 +8008,7 @@
         <v>2009</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D463" s="11">
         <v>0.82</v>
@@ -8042,13 +8016,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B464" s="12">
         <v>2009</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D464" s="13">
         <v>0.03</v>
@@ -8062,7 +8036,7 @@
         <v>2009</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D465" s="11">
         <v>0</v>
@@ -8076,7 +8050,7 @@
         <v>2009</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D466" s="13">
         <v>0</v>
@@ -8084,13 +8058,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B467" s="10">
         <v>2010</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D467" s="11">
         <v>0.08</v>
@@ -8104,7 +8078,7 @@
         <v>2010</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D468" s="13">
         <v>0.39</v>
@@ -8118,7 +8092,7 @@
         <v>2010</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D469" s="11">
         <v>0.86</v>
@@ -8132,7 +8106,7 @@
         <v>2010</v>
       </c>
       <c r="C470" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D470" s="13">
         <v>0.12</v>
@@ -8146,7 +8120,7 @@
         <v>2010</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D471" s="11">
         <v>0.8</v>
@@ -8154,13 +8128,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B472" s="12">
         <v>2010</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D472" s="13">
         <v>0.03</v>
@@ -8174,7 +8148,7 @@
         <v>2010</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D473" s="11">
         <v>0</v>
@@ -8188,7 +8162,7 @@
         <v>2010</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D474" s="13">
         <v>0</v>
@@ -8196,13 +8170,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B475" s="10">
         <v>2011</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D475" s="11">
         <v>0.1</v>
@@ -8216,7 +8190,7 @@
         <v>2011</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D476" s="13">
         <v>0.36</v>
@@ -8230,7 +8204,7 @@
         <v>2011</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D477" s="11">
         <v>0.77</v>
@@ -8244,7 +8218,7 @@
         <v>2011</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D478" s="13">
         <v>0.12</v>
@@ -8258,7 +8232,7 @@
         <v>2011</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D479" s="11">
         <v>0.78</v>
@@ -8266,13 +8240,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B480" s="12">
         <v>2011</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D480" s="13">
         <v>0.04</v>
@@ -8286,7 +8260,7 @@
         <v>2011</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D481" s="11">
         <v>0.01</v>
@@ -8300,7 +8274,7 @@
         <v>2011</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D482" s="13">
         <v>0</v>
@@ -8308,13 +8282,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B483" s="10">
         <v>2012</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D483" s="11">
         <v>0.11</v>
@@ -8328,7 +8302,7 @@
         <v>2012</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D484" s="13">
         <v>0.34</v>
@@ -8342,7 +8316,7 @@
         <v>2012</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D485" s="11">
         <v>0.92</v>
@@ -8356,7 +8330,7 @@
         <v>2012</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D486" s="13">
         <v>0.12</v>
@@ -8370,7 +8344,7 @@
         <v>2012</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D487" s="11">
         <v>0.82</v>
@@ -8378,13 +8352,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B488" s="12">
         <v>2012</v>
       </c>
       <c r="C488" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D488" s="13">
         <v>0.04</v>
@@ -8398,7 +8372,7 @@
         <v>2012</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D489" s="11">
         <v>0.01</v>
@@ -8412,7 +8386,7 @@
         <v>2012</v>
       </c>
       <c r="C490" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D490" s="13">
         <v>0</v>
@@ -8420,13 +8394,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B491" s="10">
         <v>2013</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D491" s="11">
         <v>0.13</v>
@@ -8440,7 +8414,7 @@
         <v>2013</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D492" s="13">
         <v>0.28000000000000003</v>
@@ -8454,7 +8428,7 @@
         <v>2013</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D493" s="11">
         <v>0.91</v>
@@ -8468,7 +8442,7 @@
         <v>2013</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D494" s="13">
         <v>0.12</v>
@@ -8482,7 +8456,7 @@
         <v>2013</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D495" s="11">
         <v>0.84</v>
@@ -8490,13 +8464,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B496" s="12">
         <v>2013</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D496" s="13">
         <v>0.04</v>
@@ -8510,7 +8484,7 @@
         <v>2013</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D497" s="11">
         <v>0.02</v>
@@ -8524,7 +8498,7 @@
         <v>2013</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D498" s="13">
         <v>0</v>
@@ -8532,13 +8506,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B499" s="10">
         <v>2014</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D499" s="11">
         <v>0.13</v>
@@ -8552,7 +8526,7 @@
         <v>2014</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D500" s="13">
         <v>0.19</v>
@@ -8566,7 +8540,7 @@
         <v>2014</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D501" s="11">
         <v>0.9</v>
@@ -8580,7 +8554,7 @@
         <v>2014</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D502" s="13">
         <v>0.13</v>
@@ -8594,7 +8568,7 @@
         <v>2014</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D503" s="11">
         <v>0.89</v>
@@ -8602,13 +8576,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B504" s="12">
         <v>2014</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D504" s="13">
         <v>0.04</v>
@@ -8622,7 +8596,7 @@
         <v>2014</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D505" s="11">
         <v>0.04</v>
@@ -8636,7 +8610,7 @@
         <v>2014</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D506" s="13">
         <v>0</v>
@@ -8644,13 +8618,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B507" s="10">
         <v>2015</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D507" s="11">
         <v>0.11</v>
@@ -8664,7 +8638,7 @@
         <v>2015</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D508" s="13">
         <v>0.24</v>
@@ -8678,7 +8652,7 @@
         <v>2015</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D509" s="11">
         <v>0.91</v>
@@ -8692,7 +8666,7 @@
         <v>2015</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D510" s="13">
         <v>0.11</v>
@@ -8706,7 +8680,7 @@
         <v>2015</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D511" s="11">
         <v>0.81</v>
@@ -8714,13 +8688,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B512" s="12">
         <v>2015</v>
       </c>
       <c r="C512" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D512" s="13">
         <v>0.04</v>
@@ -8734,7 +8708,7 @@
         <v>2015</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D513" s="11">
         <v>0.05</v>
@@ -8748,7 +8722,7 @@
         <v>2015</v>
       </c>
       <c r="C514" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D514" s="13">
         <v>0</v>
@@ -8756,13 +8730,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B515" s="10">
         <v>2016</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D515" s="11">
         <v>0.13</v>
@@ -8776,7 +8750,7 @@
         <v>2016</v>
       </c>
       <c r="C516" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D516" s="13">
         <v>0.32</v>
@@ -8790,7 +8764,7 @@
         <v>2016</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D517" s="11">
         <v>0.82</v>
@@ -8804,7 +8778,7 @@
         <v>2016</v>
       </c>
       <c r="C518" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D518" s="13">
         <v>0.1</v>
@@ -8818,7 +8792,7 @@
         <v>2016</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D519" s="11">
         <v>0.84</v>
@@ -8826,13 +8800,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B520" s="12">
         <v>2016</v>
       </c>
       <c r="C520" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D520" s="13">
         <v>0.04</v>
@@ -8846,7 +8820,7 @@
         <v>2016</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D521" s="11">
         <v>0.06</v>
@@ -8860,7 +8834,7 @@
         <v>2016</v>
       </c>
       <c r="C522" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D522" s="13">
         <v>0</v>
@@ -8868,13 +8842,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B523" s="10">
         <v>2017</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D523" s="11">
         <v>0.15</v>
@@ -8888,7 +8862,7 @@
         <v>2017</v>
       </c>
       <c r="C524" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D524" s="13">
         <v>0.27</v>
@@ -8902,7 +8876,7 @@
         <v>2017</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D525" s="11">
         <v>0.81</v>
@@ -8916,7 +8890,7 @@
         <v>2017</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D526" s="13">
         <v>0.09</v>
@@ -8930,7 +8904,7 @@
         <v>2017</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D527" s="11">
         <v>0.85</v>
@@ -8938,13 +8912,13 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B528" s="12">
         <v>2017</v>
       </c>
       <c r="C528" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D528" s="13">
         <v>0.04</v>
@@ -8958,7 +8932,7 @@
         <v>2017</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D529" s="11">
         <v>0.08</v>
@@ -8972,7 +8946,7 @@
         <v>2017</v>
       </c>
       <c r="C530" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D530" s="13">
         <v>0</v>
@@ -8980,13 +8954,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B531" s="10">
         <v>2018</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D531" s="11">
         <v>0.14000000000000001</v>
@@ -9000,7 +8974,7 @@
         <v>2018</v>
       </c>
       <c r="C532" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D532" s="13">
         <v>0.23</v>
@@ -9014,7 +8988,7 @@
         <v>2018</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D533" s="11">
         <v>0.83</v>
@@ -9028,7 +9002,7 @@
         <v>2018</v>
       </c>
       <c r="C534" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D534" s="13">
         <v>0.12</v>
@@ -9042,7 +9016,7 @@
         <v>2018</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D535" s="11">
         <v>0.84</v>
@@ -9050,13 +9024,13 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B536" s="12">
         <v>2018</v>
       </c>
       <c r="C536" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D536" s="13">
         <v>0.04</v>
@@ -9070,7 +9044,7 @@
         <v>2018</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D537" s="11">
         <v>0.09</v>
@@ -9084,7 +9058,7 @@
         <v>2018</v>
       </c>
       <c r="C538" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D538" s="13">
         <v>0</v>
@@ -9092,13 +9066,13 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B539" s="10">
         <v>2019</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D539" s="11">
         <v>0.15</v>
@@ -9112,7 +9086,7 @@
         <v>2019</v>
       </c>
       <c r="C540" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D540" s="13">
         <v>0.23</v>
@@ -9126,7 +9100,7 @@
         <v>2019</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D541" s="11">
         <v>0.9</v>
@@ -9140,7 +9114,7 @@
         <v>2019</v>
       </c>
       <c r="C542" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D542" s="13">
         <v>0.12</v>
@@ -9154,7 +9128,7 @@
         <v>2019</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D543" s="11">
         <v>0.85</v>
@@ -9162,13 +9136,13 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B544" s="12">
         <v>2019</v>
       </c>
       <c r="C544" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D544" s="13">
         <v>0.04</v>
@@ -9182,7 +9156,7 @@
         <v>2019</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D545" s="11">
         <v>0.1</v>
@@ -9196,7 +9170,7 @@
         <v>2019</v>
       </c>
       <c r="C546" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D546" s="13">
         <v>0</v>
@@ -9204,13 +9178,13 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B547" s="10">
         <v>2020</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D547" s="11">
         <v>0.18</v>
@@ -9224,7 +9198,7 @@
         <v>2020</v>
       </c>
       <c r="C548" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D548" s="13">
         <v>0.23</v>
@@ -9238,7 +9212,7 @@
         <v>2020</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D549" s="11">
         <v>0.9</v>
@@ -9252,7 +9226,7 @@
         <v>2020</v>
       </c>
       <c r="C550" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D550" s="13">
         <v>0.11</v>
@@ -9266,7 +9240,7 @@
         <v>2020</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D551" s="11">
         <v>0.82</v>
@@ -9274,13 +9248,13 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B552" s="12">
         <v>2020</v>
       </c>
       <c r="C552" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D552" s="13">
         <v>0.04</v>
@@ -9294,7 +9268,7 @@
         <v>2020</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D553" s="11">
         <v>0.12</v>
@@ -9308,7 +9282,7 @@
         <v>2020</v>
       </c>
       <c r="C554" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D554" s="13">
         <v>0</v>
@@ -9316,13 +9290,13 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B555" s="10">
         <v>2021</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D555" s="11">
         <v>0.21</v>
@@ -9336,7 +9310,7 @@
         <v>2021</v>
       </c>
       <c r="C556" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D556" s="13">
         <v>0.19</v>
@@ -9350,7 +9324,7 @@
         <v>2021</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D557" s="11">
         <v>0.88</v>
@@ -9364,7 +9338,7 @@
         <v>2021</v>
       </c>
       <c r="C558" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D558" s="13">
         <v>0.09</v>
@@ -9378,7 +9352,7 @@
         <v>2021</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D559" s="11">
         <v>0.8</v>
@@ -9386,13 +9360,13 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B560" s="12">
         <v>2021</v>
       </c>
       <c r="C560" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D560" s="13">
         <v>0.04</v>
@@ -9406,7 +9380,7 @@
         <v>2021</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D561" s="11">
         <v>0.13</v>
@@ -9420,7 +9394,7 @@
         <v>2021</v>
       </c>
       <c r="C562" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D562" s="13">
         <v>0</v>
@@ -9428,13 +9402,13 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B563" s="10">
         <v>2022</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D563" s="11">
         <v>0.21</v>
@@ -9448,7 +9422,7 @@
         <v>2022</v>
       </c>
       <c r="C564" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D564" s="13">
         <v>0.19</v>
@@ -9462,7 +9436,7 @@
         <v>2022</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D565" s="11">
         <v>0.74</v>
@@ -9476,7 +9450,7 @@
         <v>2022</v>
       </c>
       <c r="C566" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D566" s="13">
         <v>0.11</v>
@@ -9490,7 +9464,7 @@
         <v>2022</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D567" s="11">
         <v>0.8</v>
@@ -9498,13 +9472,13 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B568" s="12">
         <v>2022</v>
       </c>
       <c r="C568" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D568" s="13">
         <v>0.04</v>
@@ -9518,7 +9492,7 @@
         <v>2022</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D569" s="11">
         <v>0.16</v>
@@ -9532,7 +9506,7 @@
         <v>2022</v>
       </c>
       <c r="C570" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D570" s="13">
         <v>0</v>
@@ -9540,13 +9514,13 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B571" s="10">
         <v>2023</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D571" s="11">
         <v>0.21</v>
@@ -9560,7 +9534,7 @@
         <v>2023</v>
       </c>
       <c r="C572" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D572" s="13">
         <v>0.19</v>
@@ -9574,7 +9548,7 @@
         <v>2023</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D573" s="11">
         <v>0.92</v>
@@ -9588,7 +9562,7 @@
         <v>2023</v>
       </c>
       <c r="C574" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D574" s="13">
         <v>0.11</v>
@@ -9602,7 +9576,7 @@
         <v>2023</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D575" s="11">
         <v>0.8</v>
@@ -9610,13 +9584,13 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B576" s="12">
         <v>2023</v>
       </c>
       <c r="C576" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D576" s="13">
         <v>0.04</v>
@@ -9630,7 +9604,7 @@
         <v>2023</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D577" s="11">
         <v>0.19</v>
@@ -9644,7 +9618,7 @@
         <v>2023</v>
       </c>
       <c r="C578" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D578" s="13">
         <v>0</v>
@@ -9652,13 +9626,13 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B579" s="10">
         <v>2000</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D579" s="11">
         <v>31.4</v>
@@ -9666,13 +9640,13 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B580" s="12">
         <v>2000</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D580" s="13">
         <v>24.3</v>
@@ -9680,13 +9654,13 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B581" s="10">
         <v>2001</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D581" s="11">
         <v>34.5</v>
@@ -9694,13 +9668,13 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B582" s="12">
         <v>2001</v>
       </c>
       <c r="C582" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D582" s="13">
         <v>24.1</v>
@@ -9708,13 +9682,13 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B583" s="10">
         <v>2002</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D583" s="11">
         <v>32.299999999999997</v>
@@ -9722,13 +9696,13 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B584" s="12">
         <v>2002</v>
       </c>
       <c r="C584" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D584" s="13">
         <v>27.8</v>
@@ -9736,13 +9710,13 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B585" s="10">
         <v>2003</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D585" s="11">
         <v>33.200000000000003</v>
@@ -9750,13 +9724,13 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B586" s="12">
         <v>2003</v>
       </c>
       <c r="C586" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D586" s="13">
         <v>30.1</v>
@@ -9764,13 +9738,13 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B587" s="10">
         <v>2004</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D587" s="11">
         <v>27.8</v>
@@ -9778,13 +9752,13 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B588" s="12">
         <v>2004</v>
       </c>
       <c r="C588" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D588" s="13">
         <v>27.1</v>
@@ -9792,13 +9766,13 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B589" s="10">
         <v>2005</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D589" s="11">
         <v>32</v>
@@ -9806,13 +9780,13 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B590" s="12">
         <v>2005</v>
       </c>
       <c r="C590" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D590" s="13">
         <v>38.299999999999997</v>
@@ -9820,13 +9794,13 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B591" s="10">
         <v>2006</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D591" s="11">
         <v>31.1</v>
@@ -9834,13 +9808,13 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B592" s="12">
         <v>2006</v>
       </c>
       <c r="C592" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D592" s="13">
         <v>33.799999999999997</v>
@@ -9848,13 +9822,13 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B593" s="10">
         <v>2007</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D593" s="11">
         <v>36.9</v>
@@ -9862,13 +9836,13 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B594" s="12">
         <v>2007</v>
       </c>
       <c r="C594" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D594" s="13">
         <v>34.799999999999997</v>
@@ -9876,13 +9850,13 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B595" s="10">
         <v>2008</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D595" s="11">
         <v>32.700000000000003</v>
@@ -9890,13 +9864,13 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B596" s="12">
         <v>2008</v>
       </c>
       <c r="C596" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D596" s="13">
         <v>31.6</v>
@@ -9904,13 +9878,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B597" s="10">
         <v>2009</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D597" s="11">
         <v>33.5</v>
@@ -9918,13 +9892,13 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B598" s="12">
         <v>2009</v>
       </c>
       <c r="C598" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D598" s="13">
         <v>31.4</v>
@@ -9932,13 +9906,13 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B599" s="10">
         <v>2010</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D599" s="11">
         <v>32.9</v>
@@ -9946,13 +9920,13 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B600" s="12">
         <v>2010</v>
       </c>
       <c r="C600" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D600" s="13">
         <v>33.4</v>
@@ -9960,13 +9934,13 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B601" s="10">
         <v>2011</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D601" s="11">
         <v>32.200000000000003</v>
@@ -9974,13 +9948,13 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B602" s="12">
         <v>2011</v>
       </c>
       <c r="C602" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D602" s="13">
         <v>34.799999999999997</v>
@@ -9988,13 +9962,13 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B603" s="10">
         <v>2012</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D603" s="11">
         <v>33.700000000000003</v>
@@ -10002,13 +9976,13 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B604" s="12">
         <v>2012</v>
       </c>
       <c r="C604" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D604" s="13">
         <v>31.5</v>
@@ -10016,13 +9990,13 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B605" s="10">
         <v>2013</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D605" s="11">
         <v>32.299999999999997</v>
@@ -10030,13 +10004,13 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B606" s="12">
         <v>2013</v>
       </c>
       <c r="C606" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D606" s="13">
         <v>29.9</v>
@@ -10044,13 +10018,13 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B607" s="10">
         <v>2014</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D607" s="11">
         <v>34</v>
@@ -10058,13 +10032,13 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B608" s="12">
         <v>2014</v>
       </c>
       <c r="C608" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D608" s="13">
         <v>28.5</v>
@@ -10072,13 +10046,13 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B609" s="10">
         <v>2015</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D609" s="11">
         <v>35.1</v>
@@ -10086,13 +10060,13 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B610" s="12">
         <v>2015</v>
       </c>
       <c r="C610" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D610" s="13">
         <v>34</v>
@@ -10100,13 +10074,13 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B611" s="10">
         <v>2016</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D611" s="11">
         <v>30.2</v>
@@ -10114,13 +10088,13 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B612" s="12">
         <v>2016</v>
       </c>
       <c r="C612" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D612" s="13">
         <v>34.1</v>
@@ -10128,13 +10102,13 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B613" s="10">
         <v>2017</v>
       </c>
       <c r="C613" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D613" s="11">
         <v>30.9</v>
@@ -10142,13 +10116,13 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B614" s="12">
         <v>2017</v>
       </c>
       <c r="C614" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D614" s="13">
         <v>36.5</v>
@@ -10156,13 +10130,13 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B615" s="10">
         <v>2018</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D615" s="11">
         <v>32.6</v>
@@ -10170,13 +10144,13 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B616" s="12">
         <v>2018</v>
       </c>
       <c r="C616" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D616" s="13">
         <v>31</v>
@@ -10184,13 +10158,13 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B617" s="10">
         <v>2019</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D617" s="11">
         <v>35.799999999999997</v>
@@ -10198,13 +10172,13 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B618" s="12">
         <v>2019</v>
       </c>
       <c r="C618" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D618" s="13">
         <v>29.5</v>
@@ -10212,13 +10186,13 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B619" s="10">
         <v>2020</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D619" s="11">
         <v>32.5</v>
@@ -10226,13 +10200,13 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B620" s="12">
         <v>2020</v>
       </c>
       <c r="C620" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D620" s="13">
         <v>27</v>
@@ -10240,13 +10214,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B621" s="10">
         <v>2021</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D621" s="11">
         <v>29.1</v>
@@ -10254,13 +10228,13 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B622" s="12">
         <v>2021</v>
       </c>
       <c r="C622" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D622" s="13">
         <v>31.5</v>
@@ -10268,13 +10242,13 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B623" s="10">
         <v>2022</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D623" s="11">
         <v>29.7</v>
@@ -10282,13 +10256,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B624" s="12">
         <v>2022</v>
       </c>
       <c r="C624" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D624" s="13">
         <v>33.1</v>
@@ -10296,13 +10270,13 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B625" s="10">
         <v>2023</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D625" s="11">
         <v>33.9</v>
@@ -10310,13 +10284,13 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B626" s="12">
         <v>2023</v>
       </c>
       <c r="C626" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D626" s="13">
         <v>27.5</v>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4067A70-DF7C-4E64-93C5-BBE0A8096596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5661B-0FF2-452A-AE8A-CA486663F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5661B-0FF2-452A-AE8A-CA486663F6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2E455-706F-48E4-AA43-8D8BA0E40497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2E455-706F-48E4-AA43-8D8BA0E40497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AA348-4D06-4AA0-8CE4-A53FC422C9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AA348-4D06-4AA0-8CE4-A53FC422C9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1EFAE-0D1E-4F18-AF57-D93AF69EAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1EFAE-0D1E-4F18-AF57-D93AF69EAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6CFEE-805D-479B-87E9-7581215EFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6CFEE-805D-479B-87E9-7581215EFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD38B9BF-56A0-4080-AE27-49941153272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD38B9BF-56A0-4080-AE27-49941153272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138402C2-7E81-4B16-B744-3F31C15D5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31A4053-77AC-4F7A-AEDA-6AF3A2C0A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47EC6A8-0FD6-4E7D-BEF4-84CF1A9AB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="88">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>~UC_T: uc_rhsrt</t>
+  </si>
+  <si>
+    <t>windon</t>
   </si>
   <si>
     <t>BUILD RATE ASSUMPTIONS</t>
@@ -613,7 +616,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB20824F-E2BB-CEB9-7837-4CDDAA94D145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD8423-76F3-CFF3-1907-C371FF1244BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
-        <v>0.22222222222222224</v>
+        <v>0.19080736612574969</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -1299,7 +1302,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G9" s="3">
         <v>0.11415525114155252</v>
@@ -1722,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1734,12 +1737,12 @@
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -1768,7 +1771,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="19">
         <v>2</v>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B10" s="14">
         <v>2000</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B18" s="14">
         <v>2001</v>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B26" s="14">
         <v>2002</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B34" s="14">
         <v>2003</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B42" s="14">
         <v>2004</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B50" s="14">
         <v>2005</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B58" s="14">
         <v>2006</v>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B66" s="14">
         <v>2007</v>
@@ -2983,7 +2986,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B74" s="14">
         <v>2008</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B82" s="14">
         <v>2009</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B90" s="14">
         <v>2010</v>
@@ -3319,7 +3322,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B98" s="14">
         <v>2011</v>
@@ -3431,7 +3434,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B106" s="14">
         <v>2012</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B114" s="14">
         <v>2013</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B122" s="14">
         <v>2014</v>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B130" s="14">
         <v>2015</v>
@@ -3879,7 +3882,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B138" s="14">
         <v>2016</v>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B146" s="14">
         <v>2017</v>
@@ -4103,7 +4106,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B154" s="14">
         <v>2018</v>
@@ -4215,7 +4218,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B162" s="14">
         <v>2019</v>
@@ -4327,7 +4330,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B170" s="14">
         <v>2020</v>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B178" s="14">
         <v>2021</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B186" s="14">
         <v>2022</v>
@@ -4663,7 +4666,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B194" s="14">
         <v>2023</v>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B202" s="14">
         <v>2000</v>
@@ -4887,7 +4890,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B210" s="14">
         <v>2001</v>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B218" s="14">
         <v>2002</v>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B226" s="14">
         <v>2003</v>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B234" s="14">
         <v>2004</v>
@@ -5335,7 +5338,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B242" s="14">
         <v>2005</v>
@@ -5447,7 +5450,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B250" s="14">
         <v>2006</v>
@@ -5559,7 +5562,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B258" s="14">
         <v>2007</v>
@@ -5671,7 +5674,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B266" s="14">
         <v>2008</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B274" s="14">
         <v>2009</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B282" s="14">
         <v>2010</v>
@@ -6007,7 +6010,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B290" s="14">
         <v>2011</v>
@@ -6119,7 +6122,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B298" s="14">
         <v>2012</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B306" s="14">
         <v>2013</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B314" s="14">
         <v>2014</v>
@@ -6455,7 +6458,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B322" s="14">
         <v>2015</v>
@@ -6567,7 +6570,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B330" s="14">
         <v>2016</v>
@@ -6679,7 +6682,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B338" s="14">
         <v>2017</v>
@@ -6791,7 +6794,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B346" s="14">
         <v>2018</v>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B354" s="14">
         <v>2019</v>
@@ -7015,7 +7018,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B362" s="14">
         <v>2020</v>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B370" s="14">
         <v>2021</v>
@@ -7239,7 +7242,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B378" s="14">
         <v>2022</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B386" s="14">
         <v>2023</v>
@@ -7463,7 +7466,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B394" s="14">
         <v>2000</v>
@@ -7575,7 +7578,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B402" s="14">
         <v>2001</v>
@@ -7687,7 +7690,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B410" s="14">
         <v>2002</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B418" s="14">
         <v>2003</v>
@@ -7911,7 +7914,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B426" s="14">
         <v>2004</v>
@@ -8023,7 +8026,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B434" s="14">
         <v>2005</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B442" s="14">
         <v>2006</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B450" s="14">
         <v>2007</v>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B458" s="14">
         <v>2008</v>
@@ -8471,7 +8474,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B466" s="14">
         <v>2009</v>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B474" s="14">
         <v>2010</v>
@@ -8695,7 +8698,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B482" s="14">
         <v>2011</v>
@@ -8807,7 +8810,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B490" s="14">
         <v>2012</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B498" s="14">
         <v>2013</v>
@@ -9031,7 +9034,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B506" s="14">
         <v>2014</v>
@@ -9143,7 +9146,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B514" s="14">
         <v>2015</v>
@@ -9255,7 +9258,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B522" s="14">
         <v>2016</v>
@@ -9367,7 +9370,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B530" s="14">
         <v>2017</v>
@@ -9479,7 +9482,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B538" s="14">
         <v>2018</v>
@@ -9591,7 +9594,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B546" s="14">
         <v>2019</v>
@@ -9703,7 +9706,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B554" s="14">
         <v>2020</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B562" s="14">
         <v>2021</v>
@@ -9927,7 +9930,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B570" s="14">
         <v>2022</v>
@@ -10039,7 +10042,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B578" s="14">
         <v>2023</v>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB15B06-919E-412A-8F60-BAB39C847797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B25D286-D4BC-4A41-9173-8E7182FB984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B25D286-D4BC-4A41-9173-8E7182FB984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5A02C4-585F-4487-87A2-F7198976C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5A02C4-585F-4487-87A2-F7198976C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CBD476-398C-491E-8386-3130B7E63B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CBD476-398C-491E-8386-3130B7E63B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D8230A-8B18-4533-95B1-934494C79EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D8230A-8B18-4533-95B1-934494C79EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EC8B37-9787-4E23-A254-0931D5111ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
